--- a/Original Spreadsheets/DIGGSDictionaryClassificationCodePeat.xlsx
+++ b/Original Spreadsheets/DIGGSDictionaryClassificationCodePeat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DIGGS\Codelists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Original Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A44184-EC70-43BC-9085-AF0015839C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57679F9-CE14-A047-A4A7-953CB3B17F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -704,131 +704,101 @@
     <t>H1</t>
   </si>
   <si>
-    <t>Completely undecomposed peat that, when
-squeezed, releases clear colorless water. Plant remains are
-intact and easily identifiable. No amorphous material is present.</t>
-  </si>
-  <si>
     <t>H2</t>
   </si>
   <si>
-    <t>Almost completely undecomposed peat that,
-when squeezed, releases yellowish water. Plant remains are
-still relatively intact. No amorphous material is present.</t>
-  </si>
-  <si>
     <t>H3</t>
   </si>
   <si>
-    <t>Very slightly decomposed peat that, when
-squeezed, releases turbid brown water, but in which no
-amorphous peat passes between the fingers.</t>
-  </si>
-  <si>
     <t>H4</t>
   </si>
   <si>
-    <t>Slightly decomposed peat that, when squeezed,
-releases dark brown water. No peat passes between the fingers
-but the plant remains are somewhat visibly altered and less
-distinct. The residue left in hand appears slightly pasty.</t>
-  </si>
-  <si>
     <t>H5</t>
   </si>
   <si>
-    <t>Moderately decomposed peat that, when
-squeezed, releases very turbid water containing a small amount
-of amorphous granular peat through the fingers. The residue
-remaining in hand is strongly pasty in consistency and the
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>ASTM D5715</t>
+  </si>
+  <si>
+    <t>DictionaryID</t>
+  </si>
+  <si>
+    <t>DIGGS code list for the classification code Peat abbreviations</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>h5</t>
+  </si>
+  <si>
+    <t>h6</t>
+  </si>
+  <si>
+    <t>h7</t>
+  </si>
+  <si>
+    <t>h8</t>
+  </si>
+  <si>
+    <t>h9</t>
+  </si>
+  <si>
+    <t>h10</t>
+  </si>
+  <si>
+    <t>Completely undecomposed peat that, when squeezed, releases clear colorless water. Plant remains are intact and easily identifiable. No amorphous material is present.</t>
+  </si>
+  <si>
+    <t>Almost completely undecomposed peat that, when squeezed, releases yellowish water. Plant remains are still relatively intact. No amorphous material is present.</t>
+  </si>
+  <si>
+    <t>Very slightly decomposed peat that, when squeezed, releases turbid brown water, but in which no amorphous peat passes between the fingers.</t>
+  </si>
+  <si>
+    <t>Slightly decomposed peat that, when squeezed, releases dark brown water. No peat passes between the fingers but the plant remains are somewhat visibly altered and less distinct. The residue left in hand appears slightly pasty.</t>
+  </si>
+  <si>
+    <t>Moderately decomposed peat that, when squeezed, releases very turbid water containing a small amount of amorphous granular peat through the fingers. The residue remaining in hand is strongly pasty in consistency and the
 tissues of the original source plants are difficult to recognize.</t>
   </si>
   <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>Moderately decomposed peat that, when
-squeezed, releases through the fingers about one-third of the
-peat. The residue remaining after squeezing is strongly pasty.
-Very little plant structure is visible before squeezing; but, some
-small amount of intact debris becomes more visible after
-squeezing.</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>Strongly decomposed peat that, when squeezed,
-releases through the fingers about one-half of the peat. The
-water released, if any, is dark and. The residue remaining after
-squeezing is primarily composed of amorphous material with
-little recognizable plant tissue.</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>Very strongly decomposed peat that, when
-squeezed, releases through the fingers about two-thirds of the
-peat. The residue remaining after squeezing is primarily
-composed of amorphous material with very little intact plant
-tissue.</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>Almost completely decomposed peat that, when
-squeezed, almost entirely releases through the fingers as a
-fairly uniform dark paste. Almost no recognizable plant structures
-are evident in the residue.</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>Completely decomposed peat containing no
-discernible plant tissues. When squeezed, all of the peat
-releases through the fingers as a uniform dark paste.</t>
-  </si>
-  <si>
-    <t>ASTM D5715</t>
-  </si>
-  <si>
-    <t>DictionaryID</t>
-  </si>
-  <si>
-    <t>DIGGS code list for the classification code Peat abbreviations</t>
-  </si>
-  <si>
-    <t>h1</t>
-  </si>
-  <si>
-    <t>h2</t>
-  </si>
-  <si>
-    <t>h3</t>
-  </si>
-  <si>
-    <t>h4</t>
-  </si>
-  <si>
-    <t>h5</t>
-  </si>
-  <si>
-    <t>h6</t>
-  </si>
-  <si>
-    <t>h7</t>
-  </si>
-  <si>
-    <t>h8</t>
-  </si>
-  <si>
-    <t>h9</t>
-  </si>
-  <si>
-    <t>h10</t>
+    <t>Moderately decomposed peat that, when squeezed, releases through the fingers about one-third of the peat. The residue remaining after squeezing is strongly pasty. Very little plant structure is visible before squeezing; but, some small amount of intact debris becomes more visible after squeezing.</t>
+  </si>
+  <si>
+    <t>Strongly decomposed peat that, when squeezed, releases through the fingers about one-half of the peat. The water released, if any, is dark and. The residue remaining after squeezing is primarily composed of amorphous material with little recognizable plant tissue.</t>
+  </si>
+  <si>
+    <t>Very strongly decomposed peat that, when squeezed, releases through the fingers about two-thirds of the peat. The residue remaining after squeezing is primarily composed of amorphous material with very little intact plant tissue.</t>
+  </si>
+  <si>
+    <t>Almost completely decomposed peat that, when squeezed, almost entirely releases through the fingers as a fairly uniform dark paste. Almost no recognizable plant structures are evident in the residue.</t>
+  </si>
+  <si>
+    <t>Completely decomposed peat containing no discernible plant tissues. When squeezed, all of the peat releases through the fingers as a uniform dark paste.</t>
   </si>
 </sst>
 </file>
@@ -1522,24 +1492,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>16</v>
@@ -1548,16 +1518,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>219</v>
@@ -1577,29 +1547,29 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="84.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="3"/>
+    <col min="1" max="1" width="19.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1620,7 +1590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>218</v>
       </c>
@@ -1632,17 +1602,17 @@
         <v>221</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>218</v>
       </c>
@@ -1651,20 +1621,20 @@
         <v>h2</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>218</v>
       </c>
@@ -1673,20 +1643,20 @@
         <v>h3</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>218</v>
       </c>
@@ -1695,20 +1665,20 @@
         <v>h4</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>218</v>
       </c>
@@ -1717,20 +1687,20 @@
         <v>h5</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>218</v>
       </c>
@@ -1739,20 +1709,20 @@
         <v>h6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>218</v>
       </c>
@@ -1761,20 +1731,20 @@
         <v>h7</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>218</v>
       </c>
@@ -1783,20 +1753,20 @@
         <v>h8</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>218</v>
       </c>
@@ -1805,20 +1775,20 @@
         <v>h9</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>218</v>
       </c>
@@ -1827,1028 +1797,1028 @@
         <v>h10</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="10"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="10"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="13"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="10"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="10"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="13"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="10"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="13"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="10"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="10"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="10"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="10"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="13"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="10"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="10"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="13"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="10"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="10"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="10"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="10"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="10"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="10"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="10"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="10"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="13"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="10"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="10"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="10"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="13"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="10"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="10"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="13"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="10"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="13"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="10"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="13"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="10"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="13"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="10"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="13"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="10"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="10"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="13"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="10"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="13"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="10"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="13"/>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="10"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="13"/>
       <c r="G46" s="14"/>
     </row>
-    <row r="47" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="10"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="13"/>
       <c r="G47" s="14"/>
     </row>
-    <row r="48" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="10"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="13"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="10"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="13"/>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="10"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="13"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="10"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="13"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="10"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="13"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="10"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="13"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="10"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="13"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="10"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="13"/>
       <c r="G55" s="14"/>
     </row>
-    <row r="56" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="10"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="13"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="10"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="13"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="10"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="13"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="10"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="13"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="10"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="13"/>
       <c r="G60" s="14"/>
     </row>
-    <row r="61" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="10"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="13"/>
       <c r="G61" s="14"/>
     </row>
-    <row r="62" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="10"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="13"/>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="10"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="13"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="10"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="13"/>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="10"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="13"/>
       <c r="G65" s="14"/>
     </row>
-    <row r="66" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="10"/>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="13"/>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="10"/>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="13"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="10"/>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="13"/>
       <c r="G68" s="14"/>
     </row>
-    <row r="69" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="10"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="13"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="10"/>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="13"/>
       <c r="G70" s="14"/>
     </row>
-    <row r="71" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="10"/>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="13"/>
       <c r="G71" s="14"/>
     </row>
-    <row r="72" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="10"/>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="13"/>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="10"/>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="13"/>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="10"/>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="13"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="10"/>
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="13"/>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="10"/>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
       <c r="F76" s="13"/>
       <c r="G76" s="14"/>
     </row>
-    <row r="77" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="10"/>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="13"/>
       <c r="G77" s="14"/>
     </row>
-    <row r="78" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="10"/>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="13"/>
       <c r="G78" s="14"/>
     </row>
-    <row r="79" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="10"/>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
       <c r="F79" s="13"/>
       <c r="G79" s="14"/>
     </row>
-    <row r="80" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="10"/>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="13"/>
       <c r="G80" s="14"/>
     </row>
-    <row r="81" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="10"/>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="13"/>
       <c r="G81" s="14"/>
     </row>
-    <row r="82" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="10"/>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="13"/>
       <c r="G82" s="14"/>
     </row>
-    <row r="83" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="10"/>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="13"/>
       <c r="G83" s="14"/>
     </row>
-    <row r="84" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="10"/>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="13"/>
       <c r="G84" s="14"/>
     </row>
-    <row r="85" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="10"/>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="13"/>
       <c r="G85" s="14"/>
     </row>
-    <row r="86" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="10"/>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="13"/>
       <c r="G86" s="14"/>
     </row>
-    <row r="87" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="10"/>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="13"/>
       <c r="G87" s="14"/>
     </row>
-    <row r="88" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="10"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="13"/>
       <c r="G88" s="14"/>
     </row>
-    <row r="89" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="10"/>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="13"/>
       <c r="G89" s="14"/>
     </row>
-    <row r="90" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="10"/>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
       <c r="F90" s="13"/>
       <c r="G90" s="14"/>
     </row>
-    <row r="91" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="10"/>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
       <c r="F91" s="13"/>
       <c r="G91" s="14"/>
     </row>
-    <row r="92" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="10"/>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
       <c r="F92" s="13"/>
       <c r="G92" s="14"/>
     </row>
-    <row r="93" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="10"/>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="13"/>
       <c r="G93" s="14"/>
     </row>
-    <row r="94" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="10"/>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="13"/>
       <c r="G94" s="14"/>
     </row>
-    <row r="95" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="10"/>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
       <c r="F95" s="13"/>
       <c r="G95" s="14"/>
     </row>
-    <row r="96" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="10"/>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="13"/>
       <c r="G96" s="14"/>
     </row>
-    <row r="97" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="10"/>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="13"/>
       <c r="G97" s="14"/>
     </row>
-    <row r="98" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="10"/>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
       <c r="F98" s="13"/>
       <c r="G98" s="14"/>
     </row>
-    <row r="99" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="10"/>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="13"/>
       <c r="G99" s="14"/>
     </row>
-    <row r="100" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="10"/>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
       <c r="F100" s="13"/>
       <c r="G100" s="14"/>
     </row>
-    <row r="101" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="10"/>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
       <c r="F101" s="13"/>
       <c r="G101" s="14"/>
     </row>
-    <row r="102" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="10"/>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
       <c r="F102" s="13"/>
       <c r="G102" s="14"/>
     </row>
-    <row r="103" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="10"/>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
       <c r="F103" s="13"/>
       <c r="G103" s="14"/>
     </row>
-    <row r="104" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="10"/>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
       <c r="F104" s="13"/>
       <c r="G104" s="14"/>
     </row>
-    <row r="105" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="10"/>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
       <c r="F105" s="13"/>
       <c r="G105" s="14"/>
     </row>
-    <row r="106" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="10"/>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
       <c r="F106" s="13"/>
       <c r="G106" s="14"/>
     </row>
-    <row r="107" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="10"/>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
       <c r="F107" s="13"/>
       <c r="G107" s="14"/>
     </row>
-    <row r="108" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="10"/>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
       <c r="F108" s="13"/>
       <c r="G108" s="14"/>
     </row>
-    <row r="109" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="10"/>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
       <c r="F109" s="13"/>
       <c r="G109" s="14"/>
     </row>
-    <row r="110" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="10"/>
       <c r="D110" s="14"/>
       <c r="E110" s="14"/>
       <c r="F110" s="13"/>
       <c r="G110" s="14"/>
     </row>
-    <row r="111" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="10"/>
       <c r="D111" s="14"/>
       <c r="E111" s="14"/>
       <c r="F111" s="13"/>
       <c r="G111" s="14"/>
     </row>
-    <row r="112" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="10"/>
       <c r="D112" s="14"/>
       <c r="E112" s="14"/>
       <c r="F112" s="13"/>
       <c r="G112" s="14"/>
     </row>
-    <row r="113" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="10"/>
       <c r="D113" s="14"/>
       <c r="E113" s="14"/>
       <c r="F113" s="13"/>
       <c r="G113" s="14"/>
     </row>
-    <row r="114" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="10"/>
       <c r="D114" s="14"/>
       <c r="E114" s="14"/>
       <c r="F114" s="13"/>
       <c r="G114" s="14"/>
     </row>
-    <row r="115" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="10"/>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
       <c r="F115" s="13"/>
       <c r="G115" s="14"/>
     </row>
-    <row r="116" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="10"/>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
       <c r="F116" s="13"/>
       <c r="G116" s="14"/>
     </row>
-    <row r="117" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="10"/>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
       <c r="F117" s="13"/>
       <c r="G117" s="14"/>
     </row>
-    <row r="118" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="10"/>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
       <c r="F118" s="13"/>
       <c r="G118" s="14"/>
     </row>
-    <row r="119" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="10"/>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
       <c r="F119" s="13"/>
       <c r="G119" s="14"/>
     </row>
-    <row r="120" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="10"/>
       <c r="D120" s="14"/>
       <c r="E120" s="14"/>
       <c r="F120" s="13"/>
       <c r="G120" s="14"/>
     </row>
-    <row r="121" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="10"/>
       <c r="D121" s="14"/>
       <c r="E121" s="14"/>
       <c r="F121" s="13"/>
       <c r="G121" s="14"/>
     </row>
-    <row r="122" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="10"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
       <c r="F122" s="13"/>
       <c r="G122" s="14"/>
     </row>
-    <row r="123" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="10"/>
       <c r="D123" s="14"/>
       <c r="E123" s="14"/>
       <c r="F123" s="13"/>
       <c r="G123" s="14"/>
     </row>
-    <row r="124" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="10"/>
       <c r="D124" s="14"/>
       <c r="E124" s="14"/>
       <c r="F124" s="13"/>
       <c r="G124" s="14"/>
     </row>
-    <row r="125" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="10"/>
       <c r="D125" s="14"/>
       <c r="E125" s="14"/>
       <c r="F125" s="13"/>
       <c r="G125" s="14"/>
     </row>
-    <row r="126" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="10"/>
       <c r="D126" s="14"/>
       <c r="E126" s="14"/>
       <c r="F126" s="13"/>
       <c r="G126" s="14"/>
     </row>
-    <row r="127" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C127" s="10"/>
       <c r="D127" s="14"/>
       <c r="E127" s="14"/>
       <c r="F127" s="13"/>
       <c r="G127" s="14"/>
     </row>
-    <row r="128" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C128" s="10"/>
       <c r="D128" s="14"/>
       <c r="E128" s="14"/>
       <c r="F128" s="13"/>
       <c r="G128" s="14"/>
     </row>
-    <row r="129" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C129" s="10"/>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
       <c r="F129" s="13"/>
       <c r="G129" s="14"/>
     </row>
-    <row r="130" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C130" s="10"/>
       <c r="D130" s="14"/>
       <c r="E130" s="14"/>
       <c r="F130" s="13"/>
       <c r="G130" s="14"/>
     </row>
-    <row r="131" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="10"/>
       <c r="D131" s="14"/>
       <c r="E131" s="14"/>
       <c r="F131" s="13"/>
       <c r="G131" s="14"/>
     </row>
-    <row r="132" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C132" s="10"/>
       <c r="D132" s="14"/>
       <c r="E132" s="14"/>
       <c r="F132" s="13"/>
       <c r="G132" s="14"/>
     </row>
-    <row r="133" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C133" s="10"/>
       <c r="D133" s="14"/>
       <c r="E133" s="14"/>
       <c r="F133" s="13"/>
       <c r="G133" s="14"/>
     </row>
-    <row r="134" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C134" s="10"/>
       <c r="D134" s="14"/>
       <c r="E134" s="14"/>
       <c r="F134" s="13"/>
       <c r="G134" s="14"/>
     </row>
-    <row r="135" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C135" s="10"/>
       <c r="D135" s="14"/>
       <c r="E135" s="14"/>
       <c r="F135" s="13"/>
       <c r="G135" s="14"/>
     </row>
-    <row r="136" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C136" s="10"/>
       <c r="D136" s="14"/>
       <c r="E136" s="14"/>
       <c r="F136" s="13"/>
       <c r="G136" s="14"/>
     </row>
-    <row r="137" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" s="10"/>
       <c r="D137" s="14"/>
       <c r="E137" s="14"/>
       <c r="F137" s="13"/>
       <c r="G137" s="14"/>
     </row>
-    <row r="138" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C138" s="10"/>
       <c r="D138" s="14"/>
       <c r="E138" s="14"/>
       <c r="F138" s="13"/>
       <c r="G138" s="14"/>
     </row>
-    <row r="139" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C139" s="10"/>
       <c r="D139" s="14"/>
       <c r="E139" s="14"/>
       <c r="F139" s="13"/>
       <c r="G139" s="14"/>
     </row>
-    <row r="140" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C140" s="10"/>
       <c r="D140" s="14"/>
       <c r="E140" s="14"/>
       <c r="F140" s="13"/>
       <c r="G140" s="14"/>
     </row>
-    <row r="141" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C141" s="10"/>
       <c r="D141" s="14"/>
       <c r="E141" s="14"/>
       <c r="F141" s="13"/>
       <c r="G141" s="14"/>
     </row>
-    <row r="142" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C142" s="10"/>
       <c r="D142" s="14"/>
       <c r="E142" s="14"/>
       <c r="F142" s="13"/>
       <c r="G142" s="14"/>
     </row>
-    <row r="143" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C143" s="10"/>
       <c r="D143" s="14"/>
       <c r="E143" s="14"/>
       <c r="F143" s="13"/>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C144" s="10"/>
       <c r="D144" s="14"/>
       <c r="E144" s="14"/>
       <c r="F144" s="13"/>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C145" s="10"/>
       <c r="D145" s="14"/>
       <c r="E145" s="14"/>
       <c r="F145" s="13"/>
       <c r="G145" s="14"/>
     </row>
-    <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C146" s="10"/>
       <c r="D146" s="14"/>
       <c r="E146" s="14"/>
       <c r="F146" s="13"/>
       <c r="G146" s="14"/>
     </row>
-    <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C147" s="10"/>
       <c r="D147" s="14"/>
       <c r="E147" s="14"/>
       <c r="F147" s="13"/>
       <c r="G147" s="14"/>
     </row>
-    <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C148" s="10"/>
       <c r="D148" s="14"/>
       <c r="E148" s="14"/>
       <c r="F148" s="13"/>
       <c r="G148" s="14"/>
     </row>
-    <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C149" s="10"/>
       <c r="D149" s="14"/>
       <c r="E149" s="14"/>
       <c r="F149" s="13"/>
       <c r="G149" s="14"/>
     </row>
-    <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C150" s="10"/>
       <c r="D150" s="14"/>
       <c r="E150" s="14"/>
       <c r="F150" s="13"/>
       <c r="G150" s="14"/>
     </row>
-    <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C151" s="10"/>
       <c r="D151" s="14"/>
       <c r="E151" s="14"/>
       <c r="F151" s="13"/>
       <c r="G151" s="14"/>
     </row>
-    <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C152" s="10"/>
       <c r="D152" s="14"/>
       <c r="E152" s="14"/>
       <c r="F152" s="13"/>
       <c r="G152" s="14"/>
     </row>
-    <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C153" s="10"/>
       <c r="D153" s="14"/>
       <c r="E153" s="14"/>
       <c r="F153" s="13"/>
       <c r="G153" s="14"/>
     </row>
-    <row r="154" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C154" s="10"/>
       <c r="D154" s="14"/>
       <c r="E154" s="14"/>
       <c r="F154" s="13"/>
       <c r="G154" s="14"/>
     </row>
-    <row r="155" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C155" s="10"/>
       <c r="D155" s="14"/>
       <c r="E155" s="14"/>
       <c r="F155" s="13"/>
       <c r="G155" s="14"/>
     </row>
-    <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="21"/>
       <c r="C156" s="10"/>
       <c r="D156" s="16"/>
@@ -2856,7 +2826,7 @@
       <c r="F156" s="13"/>
       <c r="G156" s="14"/>
     </row>
-    <row r="157" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="21"/>
       <c r="C157" s="10"/>
       <c r="D157" s="16"/>
@@ -2864,7 +2834,7 @@
       <c r="F157" s="13"/>
       <c r="G157" s="14"/>
     </row>
-    <row r="158" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="21"/>
       <c r="C158" s="10"/>
       <c r="D158" s="16"/>
@@ -2872,7 +2842,7 @@
       <c r="F158" s="13"/>
       <c r="G158" s="14"/>
     </row>
-    <row r="159" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="21"/>
       <c r="C159" s="10"/>
       <c r="D159" s="16"/>
@@ -2880,7 +2850,7 @@
       <c r="F159" s="13"/>
       <c r="G159" s="14"/>
     </row>
-    <row r="160" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="21"/>
       <c r="C160" s="10"/>
       <c r="D160" s="16"/>
@@ -2888,7 +2858,7 @@
       <c r="F160" s="13"/>
       <c r="G160" s="14"/>
     </row>
-    <row r="161" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="21"/>
       <c r="C161" s="10"/>
       <c r="D161" s="16"/>
@@ -2896,7 +2866,7 @@
       <c r="F161" s="13"/>
       <c r="G161" s="14"/>
     </row>
-    <row r="162" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="21"/>
       <c r="C162" s="10"/>
       <c r="D162" s="16"/>
@@ -2904,7 +2874,7 @@
       <c r="F162" s="13"/>
       <c r="G162" s="14"/>
     </row>
-    <row r="163" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="21"/>
       <c r="C163" s="10"/>
       <c r="D163" s="16"/>
@@ -2912,7 +2882,7 @@
       <c r="F163" s="13"/>
       <c r="G163" s="14"/>
     </row>
-    <row r="164" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="21"/>
       <c r="C164" s="10"/>
       <c r="D164" s="16"/>
@@ -2920,7 +2890,7 @@
       <c r="F164" s="13"/>
       <c r="G164" s="14"/>
     </row>
-    <row r="165" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="21"/>
       <c r="C165" s="10"/>
       <c r="D165" s="19"/>
@@ -2928,7 +2898,7 @@
       <c r="F165" s="13"/>
       <c r="G165" s="14"/>
     </row>
-    <row r="166" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="21"/>
       <c r="C166" s="10"/>
       <c r="D166" s="16"/>
@@ -2936,209 +2906,209 @@
       <c r="F166" s="13"/>
       <c r="G166" s="14"/>
     </row>
-    <row r="167" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="21"/>
       <c r="D167" s="17"/>
       <c r="E167" s="17"/>
       <c r="F167" s="13"/>
       <c r="G167" s="14"/>
     </row>
-    <row r="168" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C168" s="20"/>
       <c r="D168" s="16"/>
       <c r="E168" s="17"/>
       <c r="F168" s="13"/>
       <c r="G168" s="14"/>
     </row>
-    <row r="169" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C169" s="20"/>
       <c r="D169" s="16"/>
       <c r="E169" s="17"/>
       <c r="F169" s="13"/>
       <c r="G169" s="14"/>
     </row>
-    <row r="170" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="20"/>
       <c r="D170" s="16"/>
       <c r="E170" s="17"/>
       <c r="F170" s="13"/>
       <c r="G170" s="14"/>
     </row>
-    <row r="171" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="10"/>
       <c r="F171" s="13"/>
       <c r="G171" s="14"/>
     </row>
-    <row r="172" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C172" s="10"/>
       <c r="F172" s="13"/>
       <c r="G172" s="14"/>
     </row>
-    <row r="173" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C173" s="10"/>
       <c r="F173" s="13"/>
       <c r="G173" s="14"/>
     </row>
-    <row r="174" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C174" s="10"/>
       <c r="F174" s="13"/>
       <c r="G174" s="14"/>
     </row>
-    <row r="175" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C175" s="10"/>
       <c r="F175" s="13"/>
       <c r="G175" s="14"/>
     </row>
-    <row r="176" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C176" s="10"/>
       <c r="F176" s="13"/>
       <c r="G176" s="14"/>
     </row>
-    <row r="177" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C177" s="10"/>
       <c r="F177" s="13"/>
       <c r="G177" s="14"/>
     </row>
-    <row r="178" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C178" s="10"/>
       <c r="F178" s="13"/>
       <c r="G178" s="14"/>
     </row>
-    <row r="179" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C179" s="10"/>
       <c r="F179" s="13"/>
       <c r="G179" s="14"/>
     </row>
-    <row r="180" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C180" s="10"/>
       <c r="F180" s="13"/>
       <c r="G180" s="14"/>
     </row>
-    <row r="181" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C181" s="10"/>
       <c r="F181" s="13"/>
       <c r="G181" s="14"/>
     </row>
-    <row r="182" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C182" s="10"/>
       <c r="F182" s="13"/>
       <c r="G182" s="14"/>
     </row>
-    <row r="183" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C183" s="10"/>
       <c r="F183" s="13"/>
       <c r="G183" s="14"/>
     </row>
-    <row r="184" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C184" s="10"/>
       <c r="F184" s="13"/>
       <c r="G184" s="14"/>
     </row>
-    <row r="185" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C185" s="10"/>
       <c r="F185" s="13"/>
       <c r="G185" s="14"/>
     </row>
-    <row r="186" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C186" s="10"/>
       <c r="F186" s="13"/>
       <c r="G186" s="14"/>
     </row>
-    <row r="187" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D187" s="4"/>
       <c r="G187" s="4"/>
     </row>
-    <row r="188" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D188" s="4"/>
       <c r="G188" s="4"/>
     </row>
-    <row r="189" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D189" s="4"/>
       <c r="G189" s="4"/>
     </row>
-    <row r="190" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D190" s="4"/>
       <c r="G190" s="4"/>
     </row>
-    <row r="191" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D191" s="4"/>
       <c r="G191" s="4"/>
     </row>
-    <row r="192" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D192" s="4"/>
       <c r="G192" s="4"/>
     </row>
-    <row r="193" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D193" s="4"/>
       <c r="G193" s="4"/>
     </row>
-    <row r="194" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D194" s="4"/>
       <c r="G194" s="4"/>
     </row>
-    <row r="195" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D195" s="4"/>
       <c r="G195" s="4"/>
     </row>
-    <row r="196" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D196" s="4"/>
       <c r="G196" s="4"/>
     </row>
-    <row r="197" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D197" s="4"/>
       <c r="G197" s="4"/>
     </row>
-    <row r="198" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D198" s="4"/>
       <c r="G198" s="4"/>
     </row>
-    <row r="199" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D199" s="4"/>
       <c r="G199" s="4"/>
     </row>
-    <row r="200" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D200" s="4"/>
       <c r="G200" s="4"/>
     </row>
-    <row r="201" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D201" s="4"/>
       <c r="G201" s="4"/>
     </row>
-    <row r="202" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D202" s="4"/>
       <c r="G202" s="4"/>
     </row>
-    <row r="203" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D203" s="4"/>
       <c r="G203" s="4"/>
     </row>
-    <row r="204" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D204" s="4"/>
       <c r="G204" s="4"/>
     </row>
-    <row r="205" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D205" s="4"/>
       <c r="G205" s="4"/>
     </row>
-    <row r="206" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C206" s="10"/>
       <c r="D206"/>
       <c r="E206"/>
       <c r="G206" s="4"/>
     </row>
-    <row r="207" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C207" s="10"/>
       <c r="D207"/>
       <c r="E207"/>
       <c r="G207" s="4"/>
     </row>
-    <row r="208" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C208" s="10"/>
       <c r="D208"/>
       <c r="E208"/>
       <c r="G208" s="4"/>
     </row>
-    <row r="209" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C209" s="10"/>
       <c r="D209"/>
       <c r="E209"/>
@@ -3185,14 +3155,14 @@
       <selection pane="bottomLeft" activeCell="A73" sqref="A73:XFD101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="184.375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="184.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
@@ -3203,306 +3173,306 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="14"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="14"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="14"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="14"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="14"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="14"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="14"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="14"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="14"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="14"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="14"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="12"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="14"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="14"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="14"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="11"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="11"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="11"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="11"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="11"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="11"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="11"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="11"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="11"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="11"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="11"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="11"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="11"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="10"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="10"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="10"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="10"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="10"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" s="10"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" s="10"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" s="11"/>
     </row>
   </sheetData>
@@ -3526,13 +3496,13 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="41.375" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3543,7 +3513,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>201</v>
       </c>
@@ -3551,7 +3521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>197</v>
       </c>
@@ -3559,7 +3529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>196</v>
       </c>
@@ -3567,7 +3537,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>211</v>
       </c>
@@ -3575,7 +3545,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>190</v>
       </c>
@@ -3583,7 +3553,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>189</v>
       </c>
@@ -3591,7 +3561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>200</v>
       </c>
@@ -3599,7 +3569,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -3607,7 +3577,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>188</v>
       </c>
@@ -3615,7 +3585,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>199</v>
       </c>
@@ -3623,7 +3593,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>194</v>
       </c>
@@ -3631,7 +3601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>195</v>
       </c>
@@ -3639,7 +3609,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>193</v>
       </c>
@@ -3647,7 +3617,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>192</v>
       </c>
@@ -3655,7 +3625,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>191</v>
       </c>
@@ -3663,7 +3633,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>198</v>
       </c>
@@ -3671,7 +3641,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -3679,7 +3649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>202</v>
       </c>
@@ -3687,7 +3657,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>204</v>
       </c>
@@ -3695,7 +3665,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>206</v>
       </c>
@@ -3703,7 +3673,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>205</v>
       </c>
@@ -3711,7 +3681,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>203</v>
       </c>
@@ -3719,7 +3689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>214</v>
       </c>
@@ -3727,7 +3697,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>208</v>
       </c>
@@ -3735,7 +3705,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>209</v>
       </c>
@@ -3743,7 +3713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>6</v>
       </c>
@@ -3751,7 +3721,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -3759,7 +3729,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>215</v>
       </c>
@@ -3767,7 +3737,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>213</v>
       </c>
@@ -3775,7 +3745,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>210</v>
       </c>
@@ -3783,7 +3753,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>207</v>
       </c>
@@ -3791,7 +3761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>212</v>
       </c>
@@ -3799,727 +3769,727 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
         <v>185</v>
       </c>
